--- a/Gyomu/Format/税込請求書.xlsx
+++ b/Gyomu/Format/税込請求書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1020" windowWidth="13455" windowHeight="13185"/>
+    <workbookView xWindow="13755" yWindow="750" windowWidth="15180" windowHeight="15270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +516,57 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,39 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -872,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -883,13 +901,13 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
@@ -914,14 +932,14 @@
     <row r="2" spans="1:10" ht="24" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="1"/>
       <c r="J2" s="7" t="s">
         <v>2</v>
@@ -941,9 +959,6 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -955,7 +970,9 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -983,16 +1000,16 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
@@ -1003,10 +1020,10 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
@@ -1017,10 +1034,10 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -1031,10 +1048,10 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="31"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="16"/>
@@ -1049,11 +1066,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="3"/>
@@ -1121,12 +1138,12 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1145,414 +1162,443 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="38"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="38"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="38"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="38"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="38"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="38"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="38"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="38"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="38"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="38"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="38"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="38"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="38"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="38"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="38"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="38"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="38"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="38"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="38"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="38"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="38"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="38"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B48:E48"/>
@@ -1569,39 +1615,10 @@
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>